--- a/Work/Data/public_data/oil-production_db.xlsx
+++ b/Work/Data/public_data/oil-production_db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\public_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41792577-32C4-470F-AF4D-2456D1E6823F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3F8E37-9933-4A0E-85D3-CE0F1123130A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -116,6 +116,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -159,6 +176,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal_ASB39_T 3.6 new" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -566,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48E6ED6-E920-4B72-BD2D-65610985EEA9}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -577,367 +598,787 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2007</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2008</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2009</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2010</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2011</v>
+      </c>
+      <c r="H1" s="10">
+        <v>2012</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2013</v>
+      </c>
+      <c r="J1" s="10">
+        <v>2014</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2015</v>
+      </c>
+      <c r="L1" s="11">
         <v>2016</v>
       </c>
-      <c r="C1" s="9">
+      <c r="M1" s="11">
         <v>2017</v>
       </c>
-      <c r="D1" s="9">
+      <c r="N1" s="11">
         <v>2018</v>
       </c>
-      <c r="E1" s="9">
+      <c r="O1" s="11">
         <v>2019</v>
       </c>
-      <c r="F1" s="9">
+      <c r="P1" s="11">
         <v>2020</v>
       </c>
-      <c r="G1" s="9">
+      <c r="Q1" s="11">
         <v>2021</v>
       </c>
-      <c r="H1" s="9">
+      <c r="R1" s="11">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5">
+        <v>1368.83</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1371.6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1356</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1216</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1189.8389999999999</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1161.6079999999999</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1199.7950000000001</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1202.614</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1192.8330000000001</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1157.0820000000001</v>
+      </c>
+      <c r="L2" s="5">
         <v>1146.2950000000001</v>
       </c>
-      <c r="C2" s="5">
+      <c r="M2" s="5">
         <v>1058.693</v>
       </c>
-      <c r="D2" s="5">
+      <c r="N2" s="5">
         <v>1040.1020000000001</v>
       </c>
-      <c r="E2" s="5">
+      <c r="O2" s="5">
         <v>1023.2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="P2" s="5">
         <v>898.73800000000006</v>
       </c>
-      <c r="G2" s="5">
+      <c r="Q2" s="5">
         <v>910.87699999999995</v>
       </c>
-      <c r="H2" s="5">
+      <c r="R2" s="5">
         <v>1020.258</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5">
+        <v>1384.6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1694.6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1896.3430000000001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1738.884</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1757.6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1618.047</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1704.001</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1701.203</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1653.6880000000001</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1767.068</v>
+      </c>
+      <c r="L3" s="5">
         <v>1721.62</v>
       </c>
-      <c r="C3" s="5">
+      <c r="M3" s="5">
         <v>1632.2380000000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="N3" s="5">
         <v>1473.2670000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="O3" s="5">
         <v>1372.848</v>
       </c>
-      <c r="F3" s="5">
+      <c r="P3" s="5">
         <v>1271.46</v>
       </c>
-      <c r="G3" s="5">
+      <c r="Q3" s="5">
         <v>1124.4570000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="R3" s="5">
         <v>1136.711</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5">
+        <v>260.38799999999998</v>
+      </c>
+      <c r="C4" s="5">
+        <v>219.46</v>
+      </c>
+      <c r="D4" s="5">
+        <v>244.36699999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>271.76299999999998</v>
+      </c>
+      <c r="F4" s="5">
+        <v>308.14600000000002</v>
+      </c>
+      <c r="G4" s="5">
+        <v>289.43099999999998</v>
+      </c>
+      <c r="H4" s="5">
+        <v>262.87</v>
+      </c>
+      <c r="I4" s="5">
+        <v>239.78899999999999</v>
+      </c>
+      <c r="J4" s="5">
+        <v>241.459</v>
+      </c>
+      <c r="K4" s="5">
+        <v>234.136</v>
+      </c>
+      <c r="L4" s="5">
         <v>225.00800000000001</v>
       </c>
-      <c r="C4" s="5">
+      <c r="M4" s="5">
         <v>262.73</v>
       </c>
-      <c r="D4" s="5">
+      <c r="N4" s="5">
         <v>323.46600000000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="O4" s="5">
         <v>329.197</v>
       </c>
-      <c r="F4" s="5">
+      <c r="P4" s="5">
         <v>299.93599999999998</v>
       </c>
-      <c r="G4" s="5">
+      <c r="Q4" s="5">
         <v>266.64600000000002</v>
       </c>
-      <c r="H4" s="5">
+      <c r="R4" s="5">
         <v>261.60399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5">
+        <v>281.78100000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>296.23700000000002</v>
+      </c>
+      <c r="D5" s="5">
+        <v>302.16199999999998</v>
+      </c>
+      <c r="E5" s="5">
+        <v>262.488</v>
+      </c>
+      <c r="F5" s="5">
+        <v>240.97200000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>228.80500000000001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>247.143</v>
+      </c>
+      <c r="I5" s="5">
+        <v>211.19</v>
+      </c>
+      <c r="J5" s="5">
+        <v>201.49799999999999</v>
+      </c>
+      <c r="K5" s="5">
+        <v>186.78899999999999</v>
+      </c>
+      <c r="L5" s="5">
         <v>163.20500000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="M5" s="5">
         <v>128.6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="N5" s="5">
         <v>120.179</v>
       </c>
-      <c r="E5" s="5">
+      <c r="O5" s="5">
         <v>109.583</v>
       </c>
-      <c r="F5" s="5">
+      <c r="P5" s="5">
         <v>113.575</v>
       </c>
-      <c r="G5" s="5">
+      <c r="Q5" s="5">
         <v>93.32</v>
       </c>
-      <c r="H5" s="5">
+      <c r="R5" s="5">
         <v>81.295000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5">
+        <v>227.714</v>
+      </c>
+      <c r="C6" s="5">
+        <v>232.46700000000001</v>
+      </c>
+      <c r="D6" s="5">
+        <v>228.279</v>
+      </c>
+      <c r="E6" s="5">
+        <v>228.25800000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>241.114</v>
+      </c>
+      <c r="G6" s="5">
+        <v>241.32</v>
+      </c>
+      <c r="H6" s="5">
+        <v>227.255</v>
+      </c>
+      <c r="I6" s="5">
+        <v>220.24700000000001</v>
+      </c>
+      <c r="J6" s="5">
+        <v>214.91300000000001</v>
+      </c>
+      <c r="K6" s="5">
+        <v>218.31200000000001</v>
+      </c>
+      <c r="L6" s="5">
         <v>220.69300000000001</v>
       </c>
-      <c r="C6" s="5">
+      <c r="M6" s="5">
         <v>210.066</v>
       </c>
-      <c r="D6" s="5">
+      <c r="N6" s="5">
         <v>193.447</v>
       </c>
-      <c r="E6" s="5">
+      <c r="O6" s="5">
         <v>217.83099999999999</v>
       </c>
-      <c r="F6" s="5">
+      <c r="P6" s="5">
         <v>207.41900000000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="Q6" s="5">
         <v>181.16800000000001</v>
       </c>
-      <c r="H6" s="5">
+      <c r="R6" s="5">
         <v>190.547</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5">
+        <v>4072.6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4030.7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4055.672</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3557.0830000000001</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3544</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3576</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3739.7510000000002</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3575.3420000000001</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3117.0819999999999</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3151.6439999999998</v>
+      </c>
+      <c r="L7" s="5">
         <v>3651.2979999999998</v>
       </c>
-      <c r="C7" s="5">
+      <c r="M7" s="5">
         <v>3867.3150000000001</v>
       </c>
-      <c r="D7" s="5">
+      <c r="N7" s="5">
         <v>3535.8649999999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="O7" s="5">
         <v>2362.4459999999999</v>
       </c>
-      <c r="F7" s="5">
+      <c r="P7" s="5">
         <v>1990.624</v>
       </c>
-      <c r="G7" s="5">
+      <c r="Q7" s="5">
         <v>2392.1170000000002</v>
       </c>
-      <c r="H7" s="5">
+      <c r="R7" s="5">
         <v>2554.2669999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="5">
+        <v>1957.2246878431934</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2035.2439999999999</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2280.538</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2336.181</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2358.0740000000001</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2652.625</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2942.4070000000002</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2979.616</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3110.471</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3504.1370000000002</v>
+      </c>
+      <c r="L8" s="5">
         <v>4647.7950000000001</v>
       </c>
-      <c r="C8" s="5">
+      <c r="M8" s="5">
         <v>4468.6629999999996</v>
       </c>
-      <c r="D8" s="5">
+      <c r="N8" s="5">
         <v>4410</v>
       </c>
-      <c r="E8" s="5">
+      <c r="O8" s="5">
         <v>4576.1400000000003</v>
       </c>
-      <c r="F8" s="5">
+      <c r="P8" s="5">
         <v>3996.6170000000002</v>
       </c>
-      <c r="G8" s="5">
+      <c r="Q8" s="5">
         <v>3971.3670000000002</v>
       </c>
-      <c r="H8" s="5">
+      <c r="R8" s="5">
         <v>4452.5280000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5">
+        <v>2664.5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2574.5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2676.01</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2261.61</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2312.12</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2658.69</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2977.56</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2924.65</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2866.78</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2858.6849999999999</v>
+      </c>
+      <c r="L9" s="5">
         <v>2954.2649999999999</v>
       </c>
-      <c r="C9" s="5">
+      <c r="M9" s="5">
         <v>2704.2359999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="N9" s="5">
         <v>2736.6030000000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="O9" s="5">
         <v>2677.6550000000002</v>
       </c>
-      <c r="F9" s="5">
+      <c r="P9" s="5">
         <v>2438.0030000000002</v>
       </c>
-      <c r="G9" s="5">
+      <c r="Q9" s="5">
         <v>2414.9560000000001</v>
       </c>
-      <c r="H9" s="5">
+      <c r="R9" s="5">
         <v>2707.038</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="5">
+        <v>1751.1859999999999</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1673.9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1721.4839999999999</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1473.9369999999999</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1486.605</v>
+      </c>
+      <c r="G10" s="5">
+        <v>489.45600000000002</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1449.9939999999999</v>
+      </c>
+      <c r="I10" s="5">
+        <v>993.346</v>
+      </c>
+      <c r="J10" s="5">
+        <v>479.899</v>
+      </c>
+      <c r="K10" s="5">
+        <v>400.31</v>
+      </c>
+      <c r="L10" s="5">
         <v>388.94499999999999</v>
       </c>
-      <c r="C10" s="5">
+      <c r="M10" s="5">
         <v>807.59400000000005</v>
       </c>
-      <c r="D10" s="5">
+      <c r="N10" s="5">
         <v>946.21900000000005</v>
       </c>
-      <c r="E10" s="5">
+      <c r="O10" s="5">
         <v>1090.806</v>
       </c>
-      <c r="F10" s="5">
+      <c r="P10" s="5">
         <v>389.334</v>
       </c>
-      <c r="G10" s="5">
+      <c r="Q10" s="5">
         <v>1207.0909999999999</v>
       </c>
-      <c r="H10" s="5">
+      <c r="R10" s="5">
         <v>981.28200000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="5">
+        <v>2233.884</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2059.2620000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2017.366</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1841.9839999999999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2048.2689999999998</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1974.808</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1954.0740000000001</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1753.7170000000001</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1807.047</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1748.191</v>
+      </c>
+      <c r="L11" s="5">
         <v>1427.2619999999999</v>
       </c>
-      <c r="C11" s="5">
+      <c r="M11" s="5">
         <v>1535.6389999999999</v>
       </c>
-      <c r="D11" s="5">
+      <c r="N11" s="5">
         <v>1601.61</v>
       </c>
-      <c r="E11" s="5">
+      <c r="O11" s="5">
         <v>1737.4069999999999</v>
       </c>
-      <c r="F11" s="5">
+      <c r="P11" s="5">
         <v>1493.2260000000001</v>
       </c>
-      <c r="G11" s="5">
+      <c r="Q11" s="5">
         <v>1322.759</v>
       </c>
-      <c r="H11" s="5">
+      <c r="R11" s="5">
         <v>1137.913</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="5">
+        <v>9207.9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>8816</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9198</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8184</v>
+      </c>
+      <c r="F12" s="5">
+        <v>8165.6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>9311</v>
+      </c>
+      <c r="H12" s="5">
+        <v>9763</v>
+      </c>
+      <c r="I12" s="5">
+        <v>9637</v>
+      </c>
+      <c r="J12" s="5">
+        <v>9712.7000000000007</v>
+      </c>
+      <c r="K12" s="5">
+        <v>10192.6</v>
+      </c>
+      <c r="L12" s="5">
         <v>10460.200000000001</v>
       </c>
-      <c r="C12" s="5">
+      <c r="M12" s="5">
         <v>9959.1620000000003</v>
       </c>
-      <c r="D12" s="5">
+      <c r="N12" s="5">
         <v>10317.287</v>
       </c>
-      <c r="E12" s="5">
+      <c r="O12" s="5">
         <v>9808.1610000000001</v>
       </c>
-      <c r="F12" s="5">
+      <c r="P12" s="5">
         <v>9213.2099999999991</v>
       </c>
-      <c r="G12" s="5">
+      <c r="Q12" s="5">
         <v>9124.7170000000006</v>
       </c>
-      <c r="H12" s="5">
+      <c r="R12" s="5">
         <v>10590.912</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="5">
+        <v>2568</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2529</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2572.1999999999998</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2241.6379999999999</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2323.8290000000002</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2564.17</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2653</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2796.5340000000001</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2794</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2988.8849999999998</v>
+      </c>
+      <c r="L13" s="5">
         <v>3088.2840000000001</v>
       </c>
-      <c r="C13" s="5">
+      <c r="M13" s="5">
         <v>2966.5259999999998</v>
       </c>
-      <c r="D13" s="5">
+      <c r="N13" s="5">
         <v>3008.3420000000001</v>
       </c>
-      <c r="E13" s="5">
+      <c r="O13" s="5">
         <v>3057.8989999999999</v>
       </c>
-      <c r="F13" s="5">
+      <c r="P13" s="5">
         <v>2778.5520000000001</v>
       </c>
-      <c r="G13" s="5">
+      <c r="Q13" s="5">
         <v>2717.6030000000001</v>
       </c>
-      <c r="H13" s="5">
+      <c r="R13" s="5">
         <v>3064.181</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="5">
+        <v>3035.6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2981.9229999999998</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2957.5360000000001</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2878.06</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2853.6379999999999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2880.9070000000002</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2803.93</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2789.4859999999999</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2682.6329999999998</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2653.8710000000001</v>
+      </c>
+      <c r="L14" s="5">
         <v>2372.5030000000002</v>
       </c>
-      <c r="C14" s="5">
+      <c r="M14" s="5">
         <v>2034.8019999999999</v>
       </c>
-      <c r="D14" s="5">
+      <c r="N14" s="5">
         <v>1510.2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="O14" s="5">
         <v>1012.605</v>
       </c>
-      <c r="F14" s="5">
+      <c r="P14" s="5">
         <v>568.57100000000003</v>
       </c>
-      <c r="G14" s="5">
+      <c r="Q14" s="5">
         <v>636</v>
       </c>
-      <c r="H14" s="5">
+      <c r="R14" s="5">
         <v>716.39499999999998</v>
       </c>
     </row>

--- a/Work/Data/public_data/oil-production_db.xlsx
+++ b/Work/Data/public_data/oil-production_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\public_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3F8E37-9933-4A0E-85D3-CE0F1123130A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE9D082-9723-4619-A932-04C04CA206F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Venezuela</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Страна</t>
@@ -587,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48E6ED6-E920-4B72-BD2D-65610985EEA9}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -600,7 +597,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="10">
         <v>2006</v>
@@ -656,7 +653,7 @@
     </row>
     <row r="2" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5">
         <v>1368.83</v>
@@ -880,7 +877,7 @@
     </row>
     <row r="6" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
         <v>227.714</v>
@@ -936,7 +933,7 @@
     </row>
     <row r="7" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
         <v>4072.6</v>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="10" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5">
         <v>1751.1859999999999</v>
@@ -1216,176 +1213,125 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5">
-        <v>9207.9</v>
+        <v>2568</v>
       </c>
       <c r="C12" s="5">
-        <v>8816</v>
+        <v>2529</v>
       </c>
       <c r="D12" s="5">
-        <v>9198</v>
+        <v>2572.1999999999998</v>
       </c>
       <c r="E12" s="5">
-        <v>8184</v>
+        <v>2241.6379999999999</v>
       </c>
       <c r="F12" s="5">
-        <v>8165.6</v>
+        <v>2323.8290000000002</v>
       </c>
       <c r="G12" s="5">
-        <v>9311</v>
+        <v>2564.17</v>
       </c>
       <c r="H12" s="5">
-        <v>9763</v>
+        <v>2653</v>
       </c>
       <c r="I12" s="5">
-        <v>9637</v>
+        <v>2796.5340000000001</v>
       </c>
       <c r="J12" s="5">
-        <v>9712.7000000000007</v>
+        <v>2794</v>
       </c>
       <c r="K12" s="5">
-        <v>10192.6</v>
+        <v>2988.8849999999998</v>
       </c>
       <c r="L12" s="5">
-        <v>10460.200000000001</v>
+        <v>3088.2840000000001</v>
       </c>
       <c r="M12" s="5">
-        <v>9959.1620000000003</v>
+        <v>2966.5259999999998</v>
       </c>
       <c r="N12" s="5">
-        <v>10317.287</v>
+        <v>3008.3420000000001</v>
       </c>
       <c r="O12" s="5">
-        <v>9808.1610000000001</v>
+        <v>3057.8989999999999</v>
       </c>
       <c r="P12" s="5">
-        <v>9213.2099999999991</v>
+        <v>2778.5520000000001</v>
       </c>
       <c r="Q12" s="5">
-        <v>9124.7170000000006</v>
+        <v>2717.6030000000001</v>
       </c>
       <c r="R12" s="5">
-        <v>10590.912</v>
+        <v>3064.181</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B13" s="5">
-        <v>2568</v>
+        <v>3035.6</v>
       </c>
       <c r="C13" s="5">
-        <v>2529</v>
+        <v>2981.9229999999998</v>
       </c>
       <c r="D13" s="5">
-        <v>2572.1999999999998</v>
+        <v>2957.5360000000001</v>
       </c>
       <c r="E13" s="5">
-        <v>2241.6379999999999</v>
+        <v>2878.06</v>
       </c>
       <c r="F13" s="5">
-        <v>2323.8290000000002</v>
+        <v>2853.6379999999999</v>
       </c>
       <c r="G13" s="5">
-        <v>2564.17</v>
+        <v>2880.9070000000002</v>
       </c>
       <c r="H13" s="5">
-        <v>2653</v>
+        <v>2803.93</v>
       </c>
       <c r="I13" s="5">
-        <v>2796.5340000000001</v>
+        <v>2789.4859999999999</v>
       </c>
       <c r="J13" s="5">
-        <v>2794</v>
+        <v>2682.6329999999998</v>
       </c>
       <c r="K13" s="5">
-        <v>2988.8849999999998</v>
+        <v>2653.8710000000001</v>
       </c>
       <c r="L13" s="5">
-        <v>3088.2840000000001</v>
+        <v>2372.5030000000002</v>
       </c>
       <c r="M13" s="5">
-        <v>2966.5259999999998</v>
+        <v>2034.8019999999999</v>
       </c>
       <c r="N13" s="5">
-        <v>3008.3420000000001</v>
+        <v>1510.2</v>
       </c>
       <c r="O13" s="5">
-        <v>3057.8989999999999</v>
+        <v>1012.605</v>
       </c>
       <c r="P13" s="5">
-        <v>2778.5520000000001</v>
+        <v>568.57100000000003</v>
       </c>
       <c r="Q13" s="5">
-        <v>2717.6030000000001</v>
+        <v>636</v>
       </c>
       <c r="R13" s="5">
-        <v>3064.181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5">
-        <v>3035.6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2981.9229999999998</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2957.5360000000001</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2878.06</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2853.6379999999999</v>
-      </c>
-      <c r="G14" s="5">
-        <v>2880.9070000000002</v>
-      </c>
-      <c r="H14" s="5">
-        <v>2803.93</v>
-      </c>
-      <c r="I14" s="5">
-        <v>2789.4859999999999</v>
-      </c>
-      <c r="J14" s="5">
-        <v>2682.6329999999998</v>
-      </c>
-      <c r="K14" s="5">
-        <v>2653.8710000000001</v>
-      </c>
-      <c r="L14" s="5">
-        <v>2372.5030000000002</v>
-      </c>
-      <c r="M14" s="5">
-        <v>2034.8019999999999</v>
-      </c>
-      <c r="N14" s="5">
-        <v>1510.2</v>
-      </c>
-      <c r="O14" s="5">
-        <v>1012.605</v>
-      </c>
-      <c r="P14" s="5">
-        <v>568.57100000000003</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>636</v>
-      </c>
-      <c r="R14" s="5">
         <v>716.39499999999998</v>
       </c>
     </row>
+    <row r="31" spans="10:12" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
     <row r="32" spans="10:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="J33" s="1"/>
@@ -1393,19 +1339,19 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="J37" s="6"/>
@@ -1423,6 +1369,7 @@
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -1476,24 +1423,18 @@
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-    </row>
-    <row r="50" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
